--- a/biorefineries/TAL/analyses/results/TAL_2025/full/baseline_D.xlsx
+++ b/biorefineries/TAL/analyses/results/TAL_2025/full/baseline_D.xlsx
@@ -2212,73 +2212,73 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.010480174409572</v>
+        <v>2.123947864650137</v>
       </c>
       <c r="C4" t="n">
-        <v>19.05689059201762</v>
+        <v>19.05457796730386</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9376607007241115</v>
+        <v>0.937774517798896</v>
       </c>
       <c r="E4" t="n">
-        <v>2.144144649399268</v>
+        <v>2.264881188748207</v>
       </c>
       <c r="F4" t="n">
-        <v>17.86889738613397</v>
+        <v>17.86889766514984</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8846418114091205</v>
+        <v>0.8846162174111797</v>
       </c>
       <c r="H4" t="n">
-        <v>174.2724682982908</v>
+        <v>175.3907495391176</v>
       </c>
       <c r="I4" t="n">
-        <v>94.84461407291953</v>
+        <v>95.42049137640716</v>
       </c>
       <c r="J4" t="n">
-        <v>19.817664590559</v>
+        <v>21.39275667734081</v>
       </c>
       <c r="K4" t="n">
-        <v>8.479861362018269</v>
+        <v>8.065429951086609</v>
       </c>
       <c r="L4" t="n">
-        <v>17.42652294701865</v>
+        <v>19.43821068699165</v>
       </c>
       <c r="M4" t="n">
-        <v>38.31350072114373</v>
+        <v>40.47093018546463</v>
       </c>
       <c r="N4" t="n">
-        <v>5.844822331582954</v>
+        <v>5.86766604709672</v>
       </c>
       <c r="O4" t="n">
-        <v>3.445893526077271e-08</v>
+        <v>7.266644388437271e-07</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.431078387433949</v>
+        <v>3.432399811101614</v>
       </c>
       <c r="R4" t="n">
-        <v>33.43296504065472</v>
+        <v>33.82645731814537</v>
       </c>
       <c r="S4" t="n">
-        <v>7.387382036507018</v>
+        <v>7.411819506807529</v>
       </c>
       <c r="T4" t="n">
-        <v>5.804956829945317</v>
+        <v>6.110992443365386</v>
       </c>
       <c r="U4" t="n">
-        <v>3.700465857097969</v>
+        <v>3.69957813845451</v>
       </c>
       <c r="V4" t="n">
-        <v>40.76792231860806</v>
+        <v>40.59668960644891</v>
       </c>
       <c r="W4" t="n">
-        <v>0.2442979397581245</v>
+        <v>0.2609552967323813</v>
       </c>
       <c r="X4" t="n">
-        <v>0.07554566291434947</v>
+        <v>0.08159925535148428</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -2296,25 +2296,25 @@
         <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>2242.133649813348</v>
+        <v>2243.792971988732</v>
       </c>
       <c r="AE4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>1137.242840958719</v>
+        <v>1409.072701739759</v>
       </c>
       <c r="AG4" t="n">
-        <v>1.617168793176164</v>
+        <v>1.617215541675903</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.1321577379900535</v>
+        <v>0.132060537982275</v>
       </c>
       <c r="AI4" t="n">
         <v>0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>57.21140798464377</v>
+        <v>57.17411276327623</v>
       </c>
       <c r="AK4" t="n">
         <v>0</v>
@@ -2323,10 +2323,10 @@
         <v>0</v>
       </c>
       <c r="AM4" t="n">
-        <v>40.96508023900773</v>
+        <v>40.95960813158339</v>
       </c>
       <c r="AN4" t="n">
-        <v>1014.726099233152</v>
+        <v>1018.692022065403</v>
       </c>
       <c r="AO4" t="n">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="AQ4" t="n">
-        <v>-1472.198153128172</v>
+        <v>-1400.248255396981</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -2371,37 +2371,37 @@
         <v>0</v>
       </c>
       <c r="BC4" t="n">
-        <v>8.558089159524958</v>
+        <v>8.985300398823007</v>
       </c>
       <c r="BD4" t="n">
-        <v>48.32684885365424</v>
+        <v>53.54094307008169</v>
       </c>
       <c r="BE4" t="n">
-        <v>89.07417397078014</v>
+        <v>84.7209028475484</v>
       </c>
       <c r="BF4" t="n">
         <v>0</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.5046078797412604</v>
+        <v>0.5049691074156545</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.5548267821519521</v>
+        <v>0.6368401153017077</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.4850324042910929</v>
+        <v>0.4861053979005449</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.242687757231783</v>
+        <v>0.2496693856474149</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.1288055892952168</v>
+        <v>0.1289001811863564</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.3916752707250961</v>
+        <v>0.3951316578531444</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.1046995277320872</v>
+        <v>0.1150450733815321</v>
       </c>
       <c r="BN4" t="n">
         <v>0</v>
@@ -2428,25 +2428,25 @@
         <v>0</v>
       </c>
       <c r="BV4" t="n">
-        <v>19.13792005792086</v>
+        <v>19.38675004668668</v>
       </c>
       <c r="BW4" t="n">
-        <v>15.85177571594778</v>
+        <v>15.9269042958716</v>
       </c>
       <c r="BX4" t="n">
-        <v>1.587036425769329</v>
+        <v>1.571571696293831</v>
       </c>
       <c r="BY4" t="n">
         <v>0</v>
       </c>
       <c r="BZ4" t="n">
-        <v>14.89366846506524</v>
+        <v>14.30695530488594</v>
       </c>
       <c r="CA4" t="n">
         <v>0</v>
       </c>
       <c r="CB4" t="n">
-        <v>-1.993204961778004</v>
+        <v>-1.988144861143008</v>
       </c>
       <c r="CC4" t="n">
         <v>0</v>
@@ -2467,13 +2467,13 @@
         <v>0</v>
       </c>
       <c r="CI4" t="n">
-        <v>14.60149433695899</v>
+        <v>14.61230026198798</v>
       </c>
       <c r="CJ4" t="n">
-        <v>24.05936771791025</v>
+        <v>29.28332536842063</v>
       </c>
       <c r="CK4" t="n">
-        <v>11.88065897853838</v>
+        <v>11.85436728538738</v>
       </c>
       <c r="CL4" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="CP4" t="n">
-        <v>-2.214672179753383</v>
+        <v>-2.209049845714308</v>
       </c>
       <c r="CQ4" t="n">
         <v>0</v>
@@ -2506,64 +2506,64 @@
         <v>0</v>
       </c>
       <c r="CV4" t="n">
-        <v>94.84461407291951</v>
+        <v>95.42049137640717</v>
       </c>
       <c r="CW4" t="n">
-        <v>17.40574224939954</v>
+        <v>19.41806843925945</v>
       </c>
       <c r="CX4" t="n">
-        <v>25.88560361141781</v>
+        <v>27.48349839034605</v>
       </c>
       <c r="CY4" t="n">
-        <v>145.9591119839593</v>
+        <v>147.2471463164531</v>
       </c>
       <c r="CZ4" t="n">
-        <v>2.412335211168489</v>
+        <v>2.516660918686355</v>
       </c>
       <c r="DA4" t="n">
-        <v>49.47719570292519</v>
+        <v>49.20403648259504</v>
       </c>
       <c r="DB4" t="n">
-        <v>51.4704006647032</v>
+        <v>51.19218134373805</v>
       </c>
       <c r="DC4" t="n">
-        <v>48.32684885365423</v>
+        <v>53.54094307008168</v>
       </c>
       <c r="DD4" t="n">
-        <v>50.54152103340762</v>
+        <v>55.74999291579599</v>
       </c>
       <c r="DE4" t="n">
-        <v>-21.03140218754531</v>
+        <v>-20.00354650567115</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.2359588621766845</v>
+        <v>0.2359273428379204</v>
       </c>
       <c r="DG4" t="n">
         <v>0</v>
       </c>
       <c r="DH4" t="n">
-        <v>0.03617578521428774</v>
+        <v>0.03597130722751946</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.3525025154823279</v>
+        <v>0.3544988799597504</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0.07788931515739383</v>
+        <v>0.07767534415191778</v>
       </c>
       <c r="DK4" t="n">
-        <v>0.06120491803026668</v>
+        <v>0.06404276854181382</v>
       </c>
       <c r="DL4" t="n">
-        <v>0.03901608850717591</v>
+        <v>0.03877131719916122</v>
       </c>
       <c r="DM4" t="n">
-        <v>0.4298390869856289</v>
+        <v>0.4254504354447968</v>
       </c>
       <c r="DN4" t="n">
-        <v>0.00257577029698598</v>
+        <v>0.002734793050928502</v>
       </c>
       <c r="DO4" t="n">
-        <v>0.0007965203259329792</v>
+        <v>0.0008551544241120917</v>
       </c>
       <c r="DP4" t="n">
         <v>0</v>
@@ -2581,25 +2581,25 @@
         <v>0</v>
       </c>
       <c r="DU4" t="n">
-        <v>0.4989139916068397</v>
+        <v>0.4702548174578428</v>
       </c>
       <c r="DV4" t="n">
         <v>0</v>
       </c>
       <c r="DW4" t="n">
-        <v>0.2530564425792595</v>
+        <v>0.2953138878736034</v>
       </c>
       <c r="DX4" t="n">
-        <v>0.0003598483693301254</v>
+        <v>0.0003389365279394444</v>
       </c>
       <c r="DY4" t="n">
-        <v>2.940741047610494e-05</v>
+        <v>2.767728794836028e-05</v>
       </c>
       <c r="DZ4" t="n">
         <v>0</v>
       </c>
       <c r="EA4" t="n">
-        <v>0.01273053991471125</v>
+        <v>0.01198256804279873</v>
       </c>
       <c r="EB4" t="n">
         <v>0</v>
@@ -2608,10 +2608,10 @@
         <v>0</v>
       </c>
       <c r="ED4" t="n">
-        <v>0.009115447556054134</v>
+        <v>0.008584327201983608</v>
       </c>
       <c r="EE4" t="n">
-        <v>0.2257943225633293</v>
+        <v>0.2134977856078837</v>
       </c>
       <c r="EF4" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="EH4" t="n">
-        <v>-0.3275898638221406</v>
+        <v>-0.2934644577096378</v>
       </c>
       <c r="EI4" t="n">
         <v>0</v>
@@ -2656,37 +2656,37 @@
         <v>0</v>
       </c>
       <c r="ET4" t="n">
-        <v>0.05863346962857295</v>
+        <v>0.06102189837698069</v>
       </c>
       <c r="EU4" t="n">
-        <v>0.3310985398360418</v>
+        <v>0.3636127721960418</v>
       </c>
       <c r="EV4" t="n">
-        <v>0.6102679905353853</v>
+        <v>0.5753653294269776</v>
       </c>
       <c r="EW4" t="n">
         <v>0</v>
       </c>
       <c r="EX4" t="n">
-        <v>0.2091781761527405</v>
+        <v>0.2006504347352594</v>
       </c>
       <c r="EY4" t="n">
-        <v>0.2299957234729434</v>
+        <v>0.2530496303944375</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0.2010634351501061</v>
+        <v>0.1931549039011111</v>
       </c>
       <c r="FA4" t="n">
-        <v>0.1006028333492798</v>
+        <v>0.09920660498742798</v>
       </c>
       <c r="FB4" t="n">
-        <v>0.05339456502515911</v>
+        <v>0.05121873202276277</v>
       </c>
       <c r="FC4" t="n">
-        <v>0.1623635342682645</v>
+        <v>0.1570063153598757</v>
       </c>
       <c r="FD4" t="n">
-        <v>0.04340173258150667</v>
+        <v>0.04571337859912539</v>
       </c>
       <c r="FE4" t="n">
         <v>0</v>
@@ -2713,25 +2713,25 @@
         <v>0</v>
       </c>
       <c r="FM4" t="n">
-        <v>0.3718238018505468</v>
+        <v>0.378705293226543</v>
       </c>
       <c r="FN4" t="n">
-        <v>0.3079784791109744</v>
+        <v>0.311119860060814</v>
       </c>
       <c r="FO4" t="n">
-        <v>0.03083396292381437</v>
+        <v>0.03069944774850016</v>
       </c>
       <c r="FP4" t="n">
         <v>0</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0.2893637561146645</v>
+        <v>0.2794753989641428</v>
       </c>
       <c r="FR4" t="n">
         <v>0</v>
       </c>
       <c r="FS4" t="n">
-        <v>-0.03872526609541009</v>
+        <v>-0.03883688502729143</v>
       </c>
       <c r="FT4" t="n">
         <v>0</v>
@@ -2752,13 +2752,13 @@
         <v>0</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0.2889009677272573</v>
+        <v>0.2621040738795822</v>
       </c>
       <c r="GA4" t="n">
-        <v>0.4760317304658711</v>
+        <v>0.5252615083314854</v>
       </c>
       <c r="GB4" t="n">
-        <v>0.2350673018068717</v>
+        <v>0.2126344177889323</v>
       </c>
       <c r="GC4" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="GG4" t="n">
-        <v>-0.04381886683405312</v>
+        <v>-0.03962421751426634</v>
       </c>
       <c r="GH4" t="n">
         <v>0</v>
@@ -2791,244 +2791,244 @@
         <v>0</v>
       </c>
       <c r="GM4" t="n">
-        <v>0.4985137898390498</v>
+        <v>0.4699104270858502</v>
       </c>
       <c r="GN4" t="n">
-        <v>0.0004957145986730486</v>
+        <v>0.0004672718458808364</v>
       </c>
       <c r="GO4" t="n">
-        <v>0.06403706065882493</v>
+        <v>0.05974507161809355</v>
       </c>
       <c r="GP4" t="n">
-        <v>0.1127034522366124</v>
+        <v>0.1051496704596927</v>
       </c>
       <c r="GQ4" t="n">
-        <v>0.07447623234158995</v>
+        <v>0.0694845732973359</v>
       </c>
       <c r="GR4" t="n">
-        <v>0.001636709177188603</v>
+        <v>0.06071829983965094</v>
       </c>
       <c r="GS4" t="n">
         <v>0</v>
       </c>
       <c r="GT4" t="n">
-        <v>0.0003595597184685241</v>
+        <v>0.0003386883083091385</v>
       </c>
       <c r="GU4" t="n">
-        <v>1.399741810379622e-05</v>
+        <v>1.317482998586081e-05</v>
       </c>
       <c r="GV4" t="n">
-        <v>1.411200287578791e-05</v>
+        <v>1.3282680939427e-05</v>
       </c>
       <c r="GW4" t="n">
-        <v>1.274400465431992e-06</v>
+        <v>1.199507605007154e-06</v>
       </c>
       <c r="GX4" t="n">
         <v>0</v>
       </c>
       <c r="GY4" t="n">
-        <v>1.697265803544203e-05</v>
+        <v>0</v>
       </c>
       <c r="GZ4" t="n">
-        <v>0.0001465245894231517</v>
+        <v>0.0001392332005516506</v>
       </c>
       <c r="HA4" t="n">
         <v>0</v>
       </c>
       <c r="HB4" t="n">
-        <v>0.6625512849391769</v>
+        <v>0.6134753902874539</v>
       </c>
       <c r="HC4" t="n">
-        <v>0.0006588310113146032</v>
+        <v>0.0006100306813785893</v>
       </c>
       <c r="HD4" t="n">
-        <v>0.0851086523342328</v>
+        <v>0.07799812265490688</v>
       </c>
       <c r="HE4" t="n">
-        <v>0.1497888696731083</v>
+        <v>0.1372745344764867</v>
       </c>
       <c r="HF4" t="n">
-        <v>0.09898286555178429</v>
+        <v>0.09071319397377958</v>
       </c>
       <c r="HG4" t="n">
-        <v>0.002175273363587722</v>
+        <v>0.0792686872745543</v>
       </c>
       <c r="HH4" t="n">
         <v>0</v>
       </c>
       <c r="HI4" t="n">
-        <v>0.0004778739492053034</v>
+        <v>0.0004421628679624649</v>
       </c>
       <c r="HJ4" t="n">
-        <v>1.860331156234473e-05</v>
+        <v>1.719994599326096e-05</v>
       </c>
       <c r="HK4" t="n">
-        <v>1.875560080582196e-05</v>
+        <v>1.734074709495646e-05</v>
       </c>
       <c r="HL4" t="n">
-        <v>1.693745856401806e-06</v>
+        <v>1.565975883314659e-06</v>
       </c>
       <c r="HM4" t="n">
         <v>0</v>
       </c>
       <c r="HN4" t="n">
-        <v>2.255756334011544e-05</v>
+        <v>0</v>
       </c>
       <c r="HO4" t="n">
-        <v>0.0001947389560253444</v>
+        <v>0.0001817711145060208</v>
       </c>
       <c r="HP4" t="n">
         <v>0</v>
       </c>
       <c r="HQ4" t="n">
-        <v>2.491508138198315</v>
+        <v>3.046937866114544</v>
       </c>
       <c r="HR4" t="n">
-        <v>5.535470640088603</v>
+        <v>5.942134485642172</v>
       </c>
       <c r="HS4" t="n">
-        <v>-3.043962501890288</v>
+        <v>-2.895196619527628</v>
       </c>
       <c r="HT4" t="n">
-        <v>0.5076797328093043</v>
+        <v>0.6906309136344033</v>
       </c>
       <c r="HU4" t="n">
-        <v>2.547001901134369</v>
+        <v>2.548886805497235</v>
       </c>
       <c r="HV4" t="n">
-        <v>2.480789006144929</v>
+        <v>2.702616766510535</v>
       </c>
       <c r="HW4" t="n">
-        <v>1.92642246705504</v>
+        <v>1.908119657513226</v>
       </c>
       <c r="HX4" t="n">
-        <v>0.2568117394560731</v>
+        <v>0.2543717884921746</v>
       </c>
       <c r="HY4" t="n">
-        <v>0.2619060669242542</v>
+        <v>0.259417715099699</v>
       </c>
       <c r="HZ4" t="n">
-        <v>0.02422936521125973</v>
+        <v>0.02422612827910141</v>
       </c>
       <c r="IA4" t="n">
-        <v>0.0114193674983022</v>
+        <v>0.256481477126334</v>
       </c>
       <c r="IB4" t="n">
         <v>0</v>
       </c>
       <c r="IC4" t="n">
-        <v>0.003051932947412186</v>
+        <v>0.00305419152512476</v>
       </c>
       <c r="ID4" t="n">
-        <v>0.0005327304047637569</v>
+        <v>0.000533124650980742</v>
       </c>
       <c r="IE4" t="n">
-        <v>-2.060181176430326</v>
+        <v>2.965694295604663</v>
       </c>
       <c r="IF4" t="n">
-        <v>36.74525615279018</v>
+        <v>39.87461512005042</v>
       </c>
       <c r="IG4" t="n">
-        <v>-38.8054373292205</v>
+        <v>-36.90892082444576</v>
       </c>
       <c r="IH4" t="n">
-        <v>7.822006661009629</v>
+        <v>7.827795323544641</v>
       </c>
       <c r="II4" t="n">
-        <v>28.92324949178055</v>
+        <v>32.04681979650578</v>
       </c>
       <c r="IJ4" t="n">
-        <v>14.91423845461967</v>
+        <v>14.77253928397336</v>
       </c>
       <c r="IK4" t="n">
-        <v>3.459122536834033</v>
+        <v>3.426257647612585</v>
       </c>
       <c r="IL4" t="n">
-        <v>7.374859623707962</v>
+        <v>7.304791581313973</v>
       </c>
       <c r="IM4" t="n">
-        <v>3.028670651407466</v>
+        <v>3.028266034887676</v>
       </c>
       <c r="IN4" t="n">
-        <v>0.1463582252114177</v>
+        <v>3.51496524871819</v>
       </c>
       <c r="IO4" t="n">
         <v>0</v>
       </c>
       <c r="IP4" t="n">
-        <v>0.03711786077680743</v>
+        <v>0.03714532978564001</v>
       </c>
       <c r="IQ4" t="n">
-        <v>0.002021897722266165</v>
+        <v>0.002023394024187374</v>
       </c>
       <c r="IR4" t="n">
-        <v>-0.5499013001433903</v>
+        <v>-0.4872317559495191</v>
       </c>
       <c r="IS4" t="n">
-        <v>0.09171392385908821</v>
+        <v>0.1162260657854778</v>
       </c>
       <c r="IT4" t="n">
-        <v>0.460123820852494</v>
+        <v>0.4289513829846909</v>
       </c>
       <c r="IU4" t="n">
-        <v>0.4481622552884177</v>
+        <v>0.4548225512298314</v>
       </c>
       <c r="IV4" t="n">
-        <v>0.3480142145644557</v>
+        <v>0.3211168751100748</v>
       </c>
       <c r="IW4" t="n">
-        <v>0.04639384004608548</v>
+        <v>0.04280815069177694</v>
       </c>
       <c r="IX4" t="n">
-        <v>0.04731414615904493</v>
+        <v>0.04365732814134776</v>
       </c>
       <c r="IY4" t="n">
-        <v>0.004377110238068556</v>
+        <v>0.004077007738151735</v>
       </c>
       <c r="IZ4" t="n">
-        <v>0.002062944280762984</v>
+        <v>0.0431631895484802</v>
       </c>
       <c r="JA4" t="n">
         <v>0</v>
       </c>
       <c r="JB4" t="n">
-        <v>0.0005513411859345235</v>
+        <v>0.0005139889601126539</v>
       </c>
       <c r="JC4" t="n">
-        <v>9.623940571658959e-05</v>
+        <v>8.971938488920396e-05</v>
       </c>
       <c r="JD4" t="n">
-        <v>-1.056066589054759</v>
+        <v>-0.9256245035425207</v>
       </c>
       <c r="JE4" t="n">
-        <v>0.2128711969916607</v>
+        <v>0.196310241490169</v>
       </c>
       <c r="JF4" t="n">
-        <v>0.7871288030083393</v>
+        <v>0.803689758509831</v>
       </c>
       <c r="JG4" t="n">
-        <v>0.4058820107990235</v>
+        <v>0.3704747804962557</v>
       </c>
       <c r="JH4" t="n">
-        <v>0.09413793504257206</v>
+        <v>0.08592578604952443</v>
       </c>
       <c r="JI4" t="n">
-        <v>0.2007023598649745</v>
+        <v>0.1831940335805487</v>
       </c>
       <c r="JJ4" t="n">
-        <v>0.08242344641207487</v>
+        <v>0.07594470882716942</v>
       </c>
       <c r="JK4" t="n">
-        <v>0.00398305088969435</v>
+        <v>0.0881504495563328</v>
       </c>
       <c r="JL4" t="n">
         <v>0</v>
       </c>
       <c r="JM4" t="n">
-        <v>0.001010140210275523</v>
+        <v>0.0009315533121462525</v>
       </c>
       <c r="JN4" t="n">
-        <v>5.502472792294405e-05</v>
+        <v>5.074391359253365e-05</v>
       </c>
     </row>
     <row r="5">
@@ -3038,73 +3038,73 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.010480158047636</v>
+        <v>2.123947839922622</v>
       </c>
       <c r="C5" t="n">
-        <v>19.05689059093279</v>
+        <v>19.05457796622397</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9376607007256679</v>
+        <v>0.9377745178004415</v>
       </c>
       <c r="E5" t="n">
-        <v>2.144144631945971</v>
+        <v>2.264881162376176</v>
       </c>
       <c r="F5" t="n">
-        <v>17.86889738514643</v>
+        <v>17.8688976641666</v>
       </c>
       <c r="G5" t="n">
-        <v>0.884641811383677</v>
+        <v>0.884616217385219</v>
       </c>
       <c r="H5" t="n">
-        <v>174.2724668539422</v>
+        <v>175.3907475090878</v>
       </c>
       <c r="I5" t="n">
-        <v>94.84461333325446</v>
+        <v>95.42049033458387</v>
       </c>
       <c r="J5" t="n">
-        <v>19.81766460220721</v>
+        <v>21.39275668874392</v>
       </c>
       <c r="K5" t="n">
-        <v>8.479861485102775</v>
+        <v>8.065430151433839</v>
       </c>
       <c r="L5" t="n">
-        <v>17.42652280527195</v>
+        <v>19.4382104558178</v>
       </c>
       <c r="M5" t="n">
-        <v>38.31350040715511</v>
+        <v>40.47092971199857</v>
       </c>
       <c r="N5" t="n">
-        <v>5.844822301371179</v>
+        <v>5.867666005015563</v>
       </c>
       <c r="O5" t="n">
-        <v>6.761401891708374e-07</v>
+        <v>-2.980232238769531e-08</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.431078384958919</v>
+        <v>3.432399808631419</v>
       </c>
       <c r="R5" t="n">
-        <v>33.43296434982864</v>
+        <v>33.82645635946159</v>
       </c>
       <c r="S5" t="n">
-        <v>7.387382044130953</v>
+        <v>7.411819514425985</v>
       </c>
       <c r="T5" t="n">
-        <v>5.804956827098443</v>
+        <v>6.110992438369615</v>
       </c>
       <c r="U5" t="n">
-        <v>3.700465857238096</v>
+        <v>3.699578138597164</v>
       </c>
       <c r="V5" t="n">
-        <v>40.76792232030204</v>
+        <v>40.59668960824628</v>
       </c>
       <c r="W5" t="n">
-        <v>0.2442978868913825</v>
+        <v>0.26095521160949</v>
       </c>
       <c r="X5" t="n">
-        <v>0.07554566280599281</v>
+        <v>0.08159925524231215</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -3122,25 +3122,25 @@
         <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>2242.133649385538</v>
+        <v>2243.792971561065</v>
       </c>
       <c r="AE5" t="n">
         <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>1137.24284341683</v>
+        <v>1409.072704154284</v>
       </c>
       <c r="AG5" t="n">
-        <v>1.617168796447293</v>
+        <v>1.617215545853417</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.1321577379529161</v>
+        <v>0.1320605379463329</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>57.21140797379361</v>
+        <v>57.17411275240867</v>
       </c>
       <c r="AK5" t="n">
         <v>0</v>
@@ -3149,10 +3149,10 @@
         <v>0</v>
       </c>
       <c r="AM5" t="n">
-        <v>40.96508023667552</v>
+        <v>40.95960812926192</v>
       </c>
       <c r="AN5" t="n">
-        <v>1014.726093988052</v>
+        <v>1018.692014759646</v>
       </c>
       <c r="AO5" t="n">
         <v>0</v>
@@ -3161,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="AQ5" t="n">
-        <v>-1472.198174497009</v>
+        <v>-1400.248290179486</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -3197,37 +3197,37 @@
         <v>0</v>
       </c>
       <c r="BC5" t="n">
-        <v>8.558087919742436</v>
+        <v>8.985298348050069</v>
       </c>
       <c r="BD5" t="n">
-        <v>48.32684877826889</v>
+        <v>53.54094299390659</v>
       </c>
       <c r="BE5" t="n">
-        <v>89.07417526368458</v>
+        <v>84.72090495203611</v>
       </c>
       <c r="BF5" t="n">
         <v>0</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.5046078793178318</v>
+        <v>0.5049691069929162</v>
       </c>
       <c r="BH5" t="n">
-        <v>0.5548265217784836</v>
+        <v>0.6368396845084741</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.4850324048029326</v>
+        <v>0.4861053984144101</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.2426877571823521</v>
+        <v>0.2496693857742003</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.1288055892707954</v>
+        <v>0.1289001811619438</v>
       </c>
       <c r="BL5" t="n">
-        <v>0.3916752706653532</v>
+        <v>0.3951316577928731</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.1046994953645686</v>
+        <v>0.1150450197709892</v>
       </c>
       <c r="BN5" t="n">
         <v>0</v>
@@ -3254,25 +3254,25 @@
         <v>0</v>
       </c>
       <c r="BV5" t="n">
-        <v>19.13791923642713</v>
+        <v>19.38674873450115</v>
       </c>
       <c r="BW5" t="n">
-        <v>15.85177574123304</v>
+        <v>15.9269043212238</v>
       </c>
       <c r="BX5" t="n">
-        <v>1.587036386915922</v>
+        <v>1.57157165740037</v>
       </c>
       <c r="BY5" t="n">
         <v>0</v>
       </c>
       <c r="BZ5" t="n">
-        <v>14.89366847299558</v>
+        <v>14.30695531290488</v>
       </c>
       <c r="CA5" t="n">
         <v>0</v>
       </c>
       <c r="CB5" t="n">
-        <v>-1.993204955574833</v>
+        <v>-1.988144854960143</v>
       </c>
       <c r="CC5" t="n">
         <v>0</v>
@@ -3293,13 +3293,13 @@
         <v>0</v>
       </c>
       <c r="CI5" t="n">
-        <v>14.60149430741707</v>
+        <v>14.61230023247401</v>
       </c>
       <c r="CJ5" t="n">
-        <v>24.05936765074359</v>
+        <v>29.28332530032981</v>
       </c>
       <c r="CK5" t="n">
-        <v>11.8806589929692</v>
+        <v>11.85436729994734</v>
       </c>
       <c r="CL5" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="CP5" t="n">
-        <v>-2.214672172860965</v>
+        <v>-2.209049838844571</v>
       </c>
       <c r="CQ5" t="n">
         <v>0</v>
@@ -3332,64 +3332,64 @@
         <v>0</v>
       </c>
       <c r="CV5" t="n">
-        <v>94.84461333325447</v>
+        <v>95.42049033458383</v>
       </c>
       <c r="CW5" t="n">
-        <v>17.40574210774049</v>
+        <v>19.41806820822325</v>
       </c>
       <c r="CX5" t="n">
-        <v>25.88560359284327</v>
+        <v>27.48349835965709</v>
       </c>
       <c r="CY5" t="n">
-        <v>145.9591119616959</v>
+        <v>147.2471462939928</v>
       </c>
       <c r="CZ5" t="n">
-        <v>2.412334918382317</v>
+        <v>2.516660434415807</v>
       </c>
       <c r="DA5" t="n">
-        <v>49.47719488199684</v>
+        <v>49.20403517107006</v>
       </c>
       <c r="DB5" t="n">
-        <v>51.47039983757167</v>
+        <v>51.1921800260302</v>
       </c>
       <c r="DC5" t="n">
-        <v>48.3268487782689</v>
+        <v>53.54094299390659</v>
       </c>
       <c r="DD5" t="n">
-        <v>50.54152095112986</v>
+        <v>55.74999283275116</v>
       </c>
       <c r="DE5" t="n">
-        <v>-21.03140249281442</v>
+        <v>-20.00354700256408</v>
       </c>
       <c r="DF5" t="n">
-        <v>0.235958862163251</v>
+        <v>0.2359273428245487</v>
       </c>
       <c r="DG5" t="n">
         <v>0</v>
       </c>
       <c r="DH5" t="n">
-        <v>0.03617578547031635</v>
+        <v>0.03597130759437518</v>
       </c>
       <c r="DI5" t="n">
-        <v>0.3525025109476234</v>
+        <v>0.3544988737833142</v>
       </c>
       <c r="DJ5" t="n">
-        <v>0.07788931584521294</v>
+        <v>0.07767534507983631</v>
       </c>
       <c r="DK5" t="n">
-        <v>0.06120491847756952</v>
+        <v>0.06404276918869249</v>
       </c>
       <c r="DL5" t="n">
-        <v>0.03901608881292826</v>
+        <v>0.03877131762397057</v>
       </c>
       <c r="DM5" t="n">
-        <v>0.4298390903556772</v>
+        <v>0.425450440108801</v>
       </c>
       <c r="DN5" t="n">
-        <v>0.002575769759669911</v>
+        <v>0.002734792188705725</v>
       </c>
       <c r="DO5" t="n">
-        <v>0.0007965203310023401</v>
+        <v>0.0008551544323047524</v>
       </c>
       <c r="DP5" t="n">
         <v>0</v>
@@ -3407,25 +3407,25 @@
         <v>0</v>
       </c>
       <c r="DU5" t="n">
-        <v>0.4989139918696465</v>
+        <v>0.4702548178933139</v>
       </c>
       <c r="DV5" t="n">
         <v>0</v>
       </c>
       <c r="DW5" t="n">
-        <v>0.2530564433078161</v>
+        <v>0.2953138887093972</v>
       </c>
       <c r="DX5" t="n">
-        <v>0.0003598483703162227</v>
+        <v>0.0003389365291934367</v>
       </c>
       <c r="DY5" t="n">
-        <v>2.940741048894288e-05</v>
+        <v>2.767728797173289e-05</v>
       </c>
       <c r="DZ5" t="n">
         <v>0</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.01273053992143186</v>
+        <v>0.01198256805390123</v>
       </c>
       <c r="EB5" t="n">
         <v>0</v>
@@ -3434,10 +3434,10 @@
         <v>0</v>
       </c>
       <c r="ED5" t="n">
-        <v>0.009115447562076079</v>
+        <v>0.008584327211082612</v>
       </c>
       <c r="EE5" t="n">
-        <v>0.2257943215582243</v>
+        <v>0.2134977843151397</v>
       </c>
       <c r="EF5" t="n">
         <v>0</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="EH5" t="n">
-        <v>-0.3275898688121472</v>
+        <v>-0.2934644653270578</v>
       </c>
       <c r="EI5" t="n">
         <v>0</v>
@@ -3482,37 +3482,37 @@
         <v>0</v>
       </c>
       <c r="ET5" t="n">
-        <v>0.05863346114347652</v>
+        <v>0.06102188445886805</v>
       </c>
       <c r="EU5" t="n">
-        <v>0.3310985393700622</v>
+        <v>0.3636127717341772</v>
       </c>
       <c r="EV5" t="n">
-        <v>0.6102679994864613</v>
+        <v>0.5753653438069547</v>
       </c>
       <c r="EW5" t="n">
         <v>0</v>
       </c>
       <c r="EX5" t="n">
-        <v>0.2091782013652631</v>
+        <v>0.200650473177616</v>
       </c>
       <c r="EY5" t="n">
-        <v>0.2299956434534155</v>
+        <v>0.253049507911187</v>
       </c>
       <c r="EZ5" t="n">
-        <v>0.2010634597654415</v>
+        <v>0.193154941273295</v>
       </c>
       <c r="FA5" t="n">
-        <v>0.1006028455389999</v>
+        <v>0.0992066241277227</v>
       </c>
       <c r="FB5" t="n">
-        <v>0.05339457149555786</v>
+        <v>0.05121874186887093</v>
       </c>
       <c r="FC5" t="n">
-        <v>0.162363553949634</v>
+        <v>0.1570063455480021</v>
       </c>
       <c r="FD5" t="n">
-        <v>0.0434017244316883</v>
+        <v>0.04571336609330636</v>
       </c>
       <c r="FE5" t="n">
         <v>0</v>
@@ -3539,25 +3539,25 @@
         <v>0</v>
       </c>
       <c r="FM5" t="n">
-        <v>0.3718237918652632</v>
+        <v>0.3787052773420349</v>
       </c>
       <c r="FN5" t="n">
-        <v>0.3079784845514602</v>
+        <v>0.3111198685644035</v>
       </c>
       <c r="FO5" t="n">
-        <v>0.03083396266444852</v>
+        <v>0.03069944777896267</v>
       </c>
       <c r="FP5" t="n">
         <v>0</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0.2893637609188282</v>
+        <v>0.2794754063145988</v>
       </c>
       <c r="FR5" t="n">
         <v>0</v>
       </c>
       <c r="FS5" t="n">
-        <v>-0.03872526659720759</v>
+        <v>-0.03883688590619137</v>
       </c>
       <c r="FT5" t="n">
         <v>0</v>
@@ -3578,13 +3578,13 @@
         <v>0</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0.2889009676130583</v>
+        <v>0.2621040737406122</v>
       </c>
       <c r="GA5" t="n">
-        <v>0.4760317299118744</v>
+        <v>0.5252615078925514</v>
       </c>
       <c r="GB5" t="n">
-        <v>0.2350673024750673</v>
+        <v>0.2126344183668364</v>
       </c>
       <c r="GC5" t="n">
         <v>0</v>
@@ -3599,7 +3599,7 @@
         <v>0</v>
       </c>
       <c r="GG5" t="n">
-        <v>-0.04381886676901551</v>
+        <v>-0.03962421745006633</v>
       </c>
       <c r="GH5" t="n">
         <v>0</v>
@@ -3617,244 +3617,244 @@
         <v>0</v>
       </c>
       <c r="GM5" t="n">
-        <v>0.4985137901030455</v>
+        <v>0.4699104275229699</v>
       </c>
       <c r="GN5" t="n">
-        <v>0.0004957145989355602</v>
+        <v>0.000467271846315503</v>
       </c>
       <c r="GO5" t="n">
-        <v>0.0640370608442614</v>
+        <v>0.05974507181693137</v>
       </c>
       <c r="GP5" t="n">
-        <v>0.1127034525629755</v>
+        <v>0.1051496708096418</v>
       </c>
       <c r="GQ5" t="n">
-        <v>0.07447623255725587</v>
+        <v>0.06948457352858781</v>
       </c>
       <c r="GR5" t="n">
-        <v>0.001636709178405195</v>
+        <v>0.06071829989602943</v>
       </c>
       <c r="GS5" t="n">
         <v>0</v>
       </c>
       <c r="GT5" t="n">
-        <v>0.00035955971945484</v>
+        <v>0.0003386883095636305</v>
       </c>
       <c r="GU5" t="n">
-        <v>1.399741810994616e-05</v>
+        <v>1.31748299970417e-05</v>
       </c>
       <c r="GV5" t="n">
-        <v>1.411200288198819e-05</v>
+        <v>1.328268095069943e-05</v>
       </c>
       <c r="GW5" t="n">
-        <v>1.274400465991916e-06</v>
+        <v>1.199507606025123e-06</v>
       </c>
       <c r="GX5" t="n">
         <v>0</v>
       </c>
       <c r="GY5" t="n">
-        <v>1.697265805143162e-05</v>
+        <v>0</v>
       </c>
       <c r="GZ5" t="n">
-        <v>0.000146524589506354</v>
+        <v>0.000139233200686468</v>
       </c>
       <c r="HA5" t="n">
         <v>0</v>
       </c>
       <c r="HB5" t="n">
-        <v>0.6625512844147249</v>
+        <v>0.6134753898366628</v>
       </c>
       <c r="HC5" t="n">
-        <v>0.0006588310107930937</v>
+        <v>0.0006100306809303312</v>
       </c>
       <c r="HD5" t="n">
-        <v>0.08510865246824809</v>
+        <v>0.07799812278462319</v>
       </c>
       <c r="HE5" t="n">
-        <v>0.1497888699089716</v>
+        <v>0.1372745347047839</v>
       </c>
       <c r="HF5" t="n">
-        <v>0.09898286570764649</v>
+        <v>0.09071319412464195</v>
       </c>
       <c r="HG5" t="n">
-        <v>0.002175273362330817</v>
+        <v>0.0792686872161722</v>
       </c>
       <c r="HH5" t="n">
         <v>0</v>
       </c>
       <c r="HI5" t="n">
-        <v>0.0004778739498848359</v>
+        <v>0.0004421628688640073</v>
       </c>
       <c r="HJ5" t="n">
-        <v>1.860331154594092e-05</v>
+        <v>1.719994597921928e-05</v>
       </c>
       <c r="HK5" t="n">
-        <v>1.875560078928387e-05</v>
+        <v>1.734074708079984e-05</v>
       </c>
       <c r="HL5" t="n">
-        <v>1.693745854908316e-06</v>
+        <v>1.56597588203623e-06</v>
       </c>
       <c r="HM5" t="n">
         <v>0</v>
       </c>
       <c r="HN5" t="n">
-        <v>2.255756333156498e-05</v>
+        <v>0</v>
       </c>
       <c r="HO5" t="n">
-        <v>0.0001947389558786492</v>
+        <v>0.0001817711143793718</v>
       </c>
       <c r="HP5" t="n">
         <v>0</v>
       </c>
       <c r="HQ5" t="n">
-        <v>2.491508099415451</v>
+        <v>3.046937799549453</v>
       </c>
       <c r="HR5" t="n">
-        <v>5.535470645656838</v>
+        <v>5.942134491153776</v>
       </c>
       <c r="HS5" t="n">
-        <v>-3.043962546241386</v>
+        <v>-2.895196691604323</v>
       </c>
       <c r="HT5" t="n">
-        <v>0.5076797332655683</v>
+        <v>0.6906309140438074</v>
       </c>
       <c r="HU5" t="n">
-        <v>2.547001900789152</v>
+        <v>2.548886805151671</v>
       </c>
       <c r="HV5" t="n">
-        <v>2.480789011602117</v>
+        <v>2.702616771958298</v>
       </c>
       <c r="HW5" t="n">
-        <v>1.926422471352241</v>
+        <v>1.908119661829984</v>
       </c>
       <c r="HX5" t="n">
-        <v>0.2568117400289339</v>
+        <v>0.2543717890676425</v>
       </c>
       <c r="HY5" t="n">
-        <v>0.2619060675084787</v>
+        <v>0.2594177156865825</v>
       </c>
       <c r="HZ5" t="n">
-        <v>0.02422936521121938</v>
+        <v>0.0242261282790614</v>
       </c>
       <c r="IA5" t="n">
-        <v>0.01141936750124406</v>
+        <v>0.256481477095027</v>
       </c>
       <c r="IB5" t="n">
         <v>0</v>
       </c>
       <c r="IC5" t="n">
-        <v>0.003051932946998521</v>
+        <v>0.003054191524710698</v>
       </c>
       <c r="ID5" t="n">
-        <v>0.0005327304046915495</v>
+        <v>0.0005331246509084655</v>
       </c>
       <c r="IE5" t="n">
-        <v>-2.06018168542068</v>
+        <v>2.965693432949074</v>
       </c>
       <c r="IF5" t="n">
-        <v>36.74525620920225</v>
+        <v>39.87461517625228</v>
       </c>
       <c r="IG5" t="n">
-        <v>-38.80543789462293</v>
+        <v>-36.90892174330321</v>
       </c>
       <c r="IH5" t="n">
-        <v>7.822006659949445</v>
+        <v>7.827795322483391</v>
       </c>
       <c r="II5" t="n">
-        <v>28.9232495492528</v>
+        <v>32.04681985376889</v>
       </c>
       <c r="IJ5" t="n">
-        <v>14.91423848788832</v>
+        <v>14.77253931739343</v>
       </c>
       <c r="IK5" t="n">
-        <v>3.459122544550175</v>
+        <v>3.426257655363843</v>
       </c>
       <c r="IL5" t="n">
-        <v>7.374859640158797</v>
+        <v>7.30479159783968</v>
       </c>
       <c r="IM5" t="n">
-        <v>3.028670651402422</v>
+        <v>3.028266034882674</v>
       </c>
       <c r="IN5" t="n">
-        <v>0.1463582252530902</v>
+        <v>3.514965248289271</v>
       </c>
       <c r="IO5" t="n">
         <v>0</v>
       </c>
       <c r="IP5" t="n">
-        <v>0.0371178607717764</v>
+        <v>0.03714532978060416</v>
       </c>
       <c r="IQ5" t="n">
-        <v>0.002021897721992114</v>
+        <v>0.00202339402391306</v>
       </c>
       <c r="IR5" t="n">
-        <v>-0.5499013076023981</v>
+        <v>-0.4872317676273542</v>
       </c>
       <c r="IS5" t="n">
-        <v>0.09171392384925692</v>
+        <v>0.1162260657465712</v>
       </c>
       <c r="IT5" t="n">
-        <v>0.4601238203272823</v>
+        <v>0.4289513825286639</v>
       </c>
       <c r="IU5" t="n">
-        <v>0.4481622558234607</v>
+        <v>0.4548225517247649</v>
       </c>
       <c r="IV5" t="n">
-        <v>0.3480142149906844</v>
+        <v>0.3211168755386901</v>
       </c>
       <c r="IW5" t="n">
-        <v>0.04639384010290612</v>
+        <v>0.04280815074891573</v>
       </c>
       <c r="IX5" t="n">
-        <v>0.0473141462169927</v>
+        <v>0.04365732819962002</v>
       </c>
       <c r="IY5" t="n">
-        <v>0.004377110233658248</v>
+        <v>0.004077007734363387</v>
       </c>
       <c r="IZ5" t="n">
-        <v>0.002062944279219285</v>
+        <v>0.04316318950317571</v>
       </c>
       <c r="JA5" t="n">
         <v>0</v>
       </c>
       <c r="JB5" t="n">
-        <v>0.000551341185305189</v>
+        <v>0.0005139889595662232</v>
       </c>
       <c r="JC5" t="n">
-        <v>9.623940560673605e-05</v>
+        <v>8.97193847938217e-05</v>
       </c>
       <c r="JD5" t="n">
-        <v>-1.05606660282055</v>
+        <v>-0.925624525281555</v>
       </c>
       <c r="JE5" t="n">
-        <v>0.2128711966360042</v>
+        <v>0.1963102411868619</v>
       </c>
       <c r="JF5" t="n">
-        <v>0.7871288033639958</v>
+        <v>0.8036897588131381</v>
       </c>
       <c r="JG5" t="n">
-        <v>0.4058820110812915</v>
+        <v>0.3704747808122135</v>
       </c>
       <c r="JH5" t="n">
-        <v>0.09413793510803972</v>
+        <v>0.08592578612280588</v>
       </c>
       <c r="JI5" t="n">
-        <v>0.2007023600045517</v>
+        <v>0.183194033736785</v>
       </c>
       <c r="JJ5" t="n">
-        <v>0.08242344628539945</v>
+        <v>0.07594470872000258</v>
       </c>
       <c r="JK5" t="n">
-        <v>0.003983050884713579</v>
+        <v>0.08815044942133117</v>
       </c>
       <c r="JL5" t="n">
         <v>0</v>
       </c>
       <c r="JM5" t="n">
-        <v>0.001010140208587819</v>
+        <v>0.0009315533107069687</v>
       </c>
       <c r="JN5" t="n">
-        <v>5.502472783101081e-05</v>
+        <v>5.074391351413247e-05</v>
       </c>
     </row>
   </sheetData>
